--- a/www.eia.gov/electricity/monthly/xls/table_es2a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_es2a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,10 +57,10 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>October 2016</t>
+    <t>November 2016</t>
   </si>
   <si>
-    <t>October 2015</t>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Coal (1000 tons)</t>
@@ -1204,34 +1204,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>58752</v>
+        <v>56396</v>
       </c>
       <c r="C8" s="10">
-        <v>67027</v>
+        <v>61257</v>
       </c>
       <c r="D8" s="11">
-        <v>39.76</v>
+        <v>40.03</v>
       </c>
       <c r="E8" s="11">
-        <v>41.16</v>
+        <v>41.17</v>
       </c>
       <c r="F8" s="10">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="10">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H8" s="10">
-        <v>525193</v>
+        <v>581589</v>
       </c>
       <c r="I8" s="10">
-        <v>663103</v>
+        <v>724360</v>
       </c>
       <c r="J8" s="11">
-        <v>41.07</v>
+        <v>40.97</v>
       </c>
       <c r="K8" s="11">
-        <v>43.14</v>
+        <v>42.97</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,34 +1239,34 @@
         <v>14</v>
       </c>
       <c r="B9" s="10">
-        <v>1370</v>
+        <v>1551</v>
       </c>
       <c r="C9" s="10">
-        <v>2137</v>
+        <v>2306</v>
       </c>
       <c r="D9" s="11">
-        <v>60.24</v>
+        <v>61.25</v>
       </c>
       <c r="E9" s="11">
-        <v>55.68</v>
+        <v>55.05</v>
       </c>
       <c r="F9" s="10">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G9" s="10">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H9" s="10">
-        <v>13736</v>
+        <v>15286</v>
       </c>
       <c r="I9" s="10">
-        <v>20358</v>
+        <v>22664</v>
       </c>
       <c r="J9" s="11">
-        <v>55.48</v>
+        <v>56.06</v>
       </c>
       <c r="K9" s="11">
-        <v>72.83</v>
+        <v>70.98</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1274,34 +1274,34 @@
         <v>15</v>
       </c>
       <c r="B10" s="10">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C10" s="10">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="D10" s="11">
-        <v>55.43</v>
+        <v>63.6</v>
       </c>
       <c r="E10" s="11">
-        <v>52.05</v>
+        <v>44.93</v>
       </c>
       <c r="F10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="10">
-        <v>3470</v>
+        <v>3803</v>
       </c>
       <c r="I10" s="10">
-        <v>4075</v>
+        <v>4504</v>
       </c>
       <c r="J10" s="11">
-        <v>43.35</v>
+        <v>45.12</v>
       </c>
       <c r="K10" s="11">
-        <v>53.63</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1309,34 +1309,34 @@
         <v>16</v>
       </c>
       <c r="B11" s="10">
-        <v>767888</v>
+        <v>697714</v>
       </c>
       <c r="C11" s="10">
-        <v>804958</v>
+        <v>758502</v>
       </c>
       <c r="D11" s="11">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="E11" s="11">
-        <v>3.02</v>
+        <v>2.74</v>
       </c>
       <c r="F11" s="10">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="G11" s="10">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H11" s="10">
-        <v>8836876</v>
+        <v>9534590</v>
       </c>
       <c r="I11" s="10">
-        <v>8292381</v>
+        <v>9050883</v>
       </c>
       <c r="J11" s="11">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="K11" s="11">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,34 +1476,34 @@
         <v>13</v>
       </c>
       <c r="B18" s="10">
-        <v>43418</v>
+        <v>41349</v>
       </c>
       <c r="C18" s="10">
-        <v>48715</v>
+        <v>44830</v>
       </c>
       <c r="D18" s="11">
-        <v>41.05</v>
+        <v>41.33</v>
       </c>
       <c r="E18" s="11">
-        <v>42.3</v>
+        <v>42.41</v>
       </c>
       <c r="F18" s="10">
         <v>194</v>
       </c>
       <c r="G18" s="10">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="10">
-        <v>391467</v>
+        <v>432816</v>
       </c>
       <c r="I18" s="10">
-        <v>484096</v>
+        <v>528926</v>
       </c>
       <c r="J18" s="11">
-        <v>42.26</v>
+        <v>42.17</v>
       </c>
       <c r="K18" s="11">
-        <v>43.93</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1511,34 +1511,34 @@
         <v>14</v>
       </c>
       <c r="B19" s="10">
-        <v>845</v>
+        <v>1074</v>
       </c>
       <c r="C19" s="10">
-        <v>970</v>
+        <v>1386</v>
       </c>
       <c r="D19" s="11">
-        <v>59.67</v>
+        <v>60.1</v>
       </c>
       <c r="E19" s="11">
-        <v>57.5</v>
+        <v>54.38</v>
       </c>
       <c r="F19" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G19" s="10">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H19" s="10">
-        <v>9937</v>
+        <v>11011</v>
       </c>
       <c r="I19" s="10">
-        <v>12151</v>
+        <v>13537</v>
       </c>
       <c r="J19" s="11">
-        <v>54.77</v>
+        <v>55.29</v>
       </c>
       <c r="K19" s="11">
-        <v>72.5</v>
+        <v>70.650000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1546,34 +1546,34 @@
         <v>15</v>
       </c>
       <c r="B20" s="10">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C20" s="10">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D20" s="11">
-        <v>52.47</v>
+        <v>62.85</v>
       </c>
       <c r="E20" s="11">
-        <v>50.64</v>
+        <v>41.65</v>
       </c>
       <c r="F20" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="10">
         <v>9</v>
       </c>
       <c r="H20" s="10">
-        <v>2976</v>
+        <v>3254</v>
       </c>
       <c r="I20" s="10">
-        <v>3418</v>
+        <v>3772</v>
       </c>
       <c r="J20" s="11">
-        <v>39.61</v>
+        <v>41.6</v>
       </c>
       <c r="K20" s="11">
-        <v>52.37</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1581,34 +1581,34 @@
         <v>16</v>
       </c>
       <c r="B21" s="10">
-        <v>356539</v>
+        <v>326505</v>
       </c>
       <c r="C21" s="10">
-        <v>367001</v>
+        <v>354358</v>
       </c>
       <c r="D21" s="11">
-        <v>3.66</v>
+        <v>3.49</v>
       </c>
       <c r="E21" s="11">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="F21" s="10">
         <v>403</v>
       </c>
       <c r="G21" s="10">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H21" s="10">
-        <v>4220826</v>
+        <v>4547331</v>
       </c>
       <c r="I21" s="10">
-        <v>3837110</v>
+        <v>4191468</v>
       </c>
       <c r="J21" s="11">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="K21" s="11">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,34 +1748,34 @@
         <v>13</v>
       </c>
       <c r="B28" s="10">
-        <v>14743</v>
+        <v>14586</v>
       </c>
       <c r="C28" s="10">
-        <v>17340</v>
+        <v>15432</v>
       </c>
       <c r="D28" s="11">
-        <v>35.14</v>
+        <v>35.71</v>
       </c>
       <c r="E28" s="11">
-        <v>37.04</v>
+        <v>36.47</v>
       </c>
       <c r="F28" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" s="10">
-        <v>127810</v>
+        <v>142397</v>
       </c>
       <c r="I28" s="10">
-        <v>168714</v>
+        <v>184146</v>
       </c>
       <c r="J28" s="11">
-        <v>36.49</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="K28" s="11">
-        <v>39.880000000000003</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1783,34 +1783,34 @@
         <v>14</v>
       </c>
       <c r="B29" s="10">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="C29" s="10">
-        <v>1131</v>
+        <v>891</v>
       </c>
       <c r="D29" s="11">
-        <v>61.1</v>
+        <v>64.02</v>
       </c>
       <c r="E29" s="11">
-        <v>53.42</v>
+        <v>55.56</v>
       </c>
       <c r="F29" s="10">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G29" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="10">
-        <v>3553</v>
+        <v>3994</v>
       </c>
       <c r="I29" s="10">
-        <v>7889</v>
+        <v>8780</v>
       </c>
       <c r="J29" s="11">
-        <v>57.26</v>
+        <v>58.01</v>
       </c>
       <c r="K29" s="11">
-        <v>72.86</v>
+        <v>70.98</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,10 +1818,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="10">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C30" s="10">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>19</v>
@@ -1836,16 +1836,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="10">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="I30" s="10">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="J30" s="11">
-        <v>68.95</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="K30" s="11">
-        <v>68.349999999999994</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1853,34 +1853,34 @@
         <v>16</v>
       </c>
       <c r="B31" s="10">
-        <v>350117</v>
+        <v>307453</v>
       </c>
       <c r="C31" s="10">
-        <v>381566</v>
+        <v>340122</v>
       </c>
       <c r="D31" s="11">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="E31" s="11">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="F31" s="10">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G31" s="10">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H31" s="10">
-        <v>4009129</v>
+        <v>4316582</v>
       </c>
       <c r="I31" s="10">
-        <v>3839983</v>
+        <v>4180105</v>
       </c>
       <c r="J31" s="11">
-        <v>2.5299999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="K31" s="11">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,10 +2020,10 @@
         <v>13</v>
       </c>
       <c r="B38" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>19</v>
@@ -2038,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="H38" s="10">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I38" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K38" s="11">
-        <v>64.62</v>
+        <v>64.22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2125,10 +2125,10 @@
         <v>16</v>
       </c>
       <c r="B41" s="10">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="C41" s="10">
-        <v>523</v>
+        <v>749</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>19</v>
@@ -2143,10 +2143,10 @@
         <v>3</v>
       </c>
       <c r="H41" s="10">
-        <v>6628</v>
+        <v>7217</v>
       </c>
       <c r="I41" s="10">
-        <v>5114</v>
+        <v>5863</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>19</v>
@@ -2292,10 +2292,10 @@
         <v>13</v>
       </c>
       <c r="B48" s="10">
-        <v>585</v>
+        <v>451</v>
       </c>
       <c r="C48" s="10">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>19</v>
@@ -2304,22 +2304,22 @@
         <v>19</v>
       </c>
       <c r="F48" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" s="10">
-        <v>5878</v>
+        <v>6329</v>
       </c>
       <c r="I48" s="10">
-        <v>10201</v>
+        <v>11188</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="11">
-        <v>59.31</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,34 +2327,34 @@
         <v>14</v>
       </c>
       <c r="B49" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" s="10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D49" s="11">
-        <v>62.63</v>
+        <v>61.84</v>
       </c>
       <c r="E49" s="11">
-        <v>77.23</v>
+        <v>71.78</v>
       </c>
       <c r="F49" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" s="10">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="I49" s="10">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="J49" s="11">
-        <v>58.86</v>
+        <v>59.24</v>
       </c>
       <c r="K49" s="11">
-        <v>84.66</v>
+        <v>83.59</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>19</v>
@@ -2377,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="10">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I50" s="10">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>19</v>
@@ -2397,10 +2397,10 @@
         <v>16</v>
       </c>
       <c r="B51" s="10">
-        <v>60657</v>
+        <v>63167</v>
       </c>
       <c r="C51" s="10">
-        <v>55868</v>
+        <v>63274</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>19</v>
@@ -2409,16 +2409,16 @@
         <v>19</v>
       </c>
       <c r="F51" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G51" s="10">
         <v>53</v>
       </c>
       <c r="H51" s="10">
-        <v>600294</v>
+        <v>663461</v>
       </c>
       <c r="I51" s="10">
-        <v>610174</v>
+        <v>673448</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>19</v>
